--- a/data_processed/20250627/BTCUSDVOLSURFACE_REGULARIZED_20250627.xlsx
+++ b/data_processed/20250627/BTCUSDVOLSURFACE_REGULARIZED_20250627.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -12231,7 +12231,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -30988,7 +30988,7 @@
       </c>
       <c r="G1183" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -39556,7 +39556,7 @@
       </c>
       <c r="G1523" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -39614,7 +39614,7 @@
       </c>
       <c r="G1525" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -40171,7 +40171,7 @@
       </c>
       <c r="G1546" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -40515,7 +40515,7 @@
       </c>
       <c r="G1558" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -41541,7 +41541,7 @@
       </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -43410,7 +43410,7 @@
       </c>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -44146,7 +44146,7 @@
       </c>
       <c r="G1693" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -44175,7 +44175,7 @@
       </c>
       <c r="G1694" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -45251,7 +45251,7 @@
       </c>
       <c r="G1734" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -47001,7 +47001,7 @@
       </c>
       <c r="G1800" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250627/BTCUSDVOLSURFACE_REGULARIZED_20250627.xlsx
+++ b/data_processed/20250627/BTCUSDVOLSURFACE_REGULARIZED_20250627.xlsx
@@ -11601,7 +11601,7 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -11742,7 +11742,7 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -11800,7 +11800,7 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -11887,7 +11887,7 @@
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12003,7 +12003,7 @@
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12032,7 +12032,7 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12090,7 +12090,7 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12231,7 +12231,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -39556,7 +39556,7 @@
       </c>
       <c r="G1523" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -40113,7 +40113,7 @@
       </c>
       <c r="G1544" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41309,7 +41309,7 @@
       </c>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41338,7 +41338,7 @@
       </c>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41982,7 +41982,7 @@
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42011,7 +42011,7 @@
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42127,7 +42127,7 @@
       </c>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42185,7 +42185,7 @@
       </c>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42442,7 +42442,7 @@
       </c>
       <c r="G1629" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42925,7 +42925,7 @@
       </c>
       <c r="G1648" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43008,7 +43008,7 @@
       </c>
       <c r="G1651" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43066,7 +43066,7 @@
       </c>
       <c r="G1653" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43153,7 +43153,7 @@
       </c>
       <c r="G1656" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44030,7 +44030,7 @@
       </c>
       <c r="G1689" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44907,7 +44907,7 @@
       </c>
       <c r="G1722" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44994,7 +44994,7 @@
       </c>
       <c r="G1725" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45023,7 +45023,7 @@
       </c>
       <c r="G1726" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45139,7 +45139,7 @@
       </c>
       <c r="G1730" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45883,7 +45883,7 @@
       </c>
       <c r="G1758" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45970,7 +45970,7 @@
       </c>
       <c r="G1761" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46028,7 +46028,7 @@
       </c>
       <c r="G1763" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46086,7 +46086,7 @@
       </c>
       <c r="G1765" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
